--- a/biology/Botanique/Buchnera_palustris/Buchnera_palustris.xlsx
+++ b/biology/Botanique/Buchnera_palustris/Buchnera_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buchnera palustris est une espèce herbacée sud-américaine appartenant à la famille des Orobanchaceae (anciennement Scrophulariaceae). 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buchnera palustris est une herbacée annuelle élancée[4], plus ou moins scabre. La tige est simple à peu ramifiée au sommet. Les feuilles sont linéaires entières, uninervées, un peu obovales pour les feuilles inférieures. L'inflorescence est en épi grêle terminal. Les fleurs sont sessiles alternes. Deux fois plus longue que le calice, la corolle est pourpre, en tube courbé, et à 5 lobes inégaux[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buchnera palustris est une herbacée annuelle élancée, plus ou moins scabre. La tige est simple à peu ramifiée au sommet. Les feuilles sont linéaires entières, uninervées, un peu obovales pour les feuilles inférieures. L'inflorescence est en épi grêle terminal. Les fleurs sont sessiles alternes. Deux fois plus longue que le calice, la corolle est pourpre, en tube courbé, et à 5 lobes inégaux.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Buchnera palustris de l'Amérique centrale au Paraguay en passant par la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, le Pérou et le Brésil[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Buchnera palustris de l'Amérique centrale au Paraguay en passant par la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, le Pérou et le Brésil.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buchnera palustris pousse depuis le niveau de la mer jusqu'à 50–1 400 m d'altitude, dans les savanes, les espaces ouverts le long des cours d'eau ruisseaux et sur les rives des lacs[4], sur des sol avec un horizon lessivé blanchi jusqu'à un engorgement par l'eau jusqu'à la surface. Elle fleurit en Guyane de mars à août[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buchnera palustris pousse depuis le niveau de la mer jusqu'à 50–1 400 m d'altitude, dans les savanes, les espaces ouverts le long des cours d'eau ruisseaux et sur les rives des lacs, sur des sol avec un horizon lessivé blanchi jusqu'à un engorgement par l'eau jusqu'à la surface. Elle fleurit en Guyane de mars à août.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « PIRIPEA paluſtris. (Tabula 253.) 
 Herba caule pedali, ftriato. Folia alcerna, linearia, canalicular; pollicaria, quandoque longlora, arguta, denticulata. Flores ſpicati, ſeſſiles, purpuraſcentes, alternatim diſpoſiti, &amp; remoti. 
 Florebat Septembri. 
